--- a/Data/Transitions/19391941Translation.xlsx
+++ b/Data/Transitions/19391941Translation.xlsx
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -223,7 +223,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -349,13 +349,13 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.023614895549500452, 850.0: 6.286827434143215e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9763851044504995, 850.0: 0.0025993613429630604}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.02333808543217699, 850.0: 6.225564636792795e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.976661914567823, 850.0: 0.0026053002055827224}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -394,7 +394,7 @@
     <t>{208.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9932935916542474}</t>
+    <t>{209.0: 0.9932177844762623}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -403,7 +403,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -556,7 +559,7 @@
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -718,16 +718,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447}</t>
+    <t>{402.0: 0.9989634083134653}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9981033392723719}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.9980654238480479}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -769,7 +769,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -847,7 +847,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{595.0: 1.0, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 1.0, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.0067064083457526085, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.006782215523737754, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1693,7 +1693,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1717,7 +1717,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1777,10 +1777,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.959516394944129, 180.0: 0.04046549158604738, 850.0: 1.8113469823655946e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9995525727069351, 850.0: 0.00044742729306487697}</t>
+    <t>{179.0: 0.9611769872639437, 180.0: 0.038805642260559096, 850.0: 1.7370475497116875e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.999552572706935, 850.0: 0.00044742729306487697}</t>
   </si>
   <si>
     <t>{209.0: 1.0}</t>
@@ -1801,7 +1801,7 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881432, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597467, 212.0: 0.00016450074025333114}</t>
@@ -1810,10 +1810,10 @@
     <t>{479.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9974491964968967, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774043}</t>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774042}</t>
   </si>
   <si>
     <t>{629.0: 0.23159851301115242, 209.0: 0.005018587360594796, 788.0: 0.7633828996282528}</t>
@@ -1825,7 +1825,7 @@
     <t>{696.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.0003498542274052478}</t>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4164,29 +4164,29 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>592</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>592</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
